--- a/Propeller Packages/Aeronaut_16x8/Prop_sections.xlsx
+++ b/Propeller Packages/Aeronaut_16x8/Prop_sections.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/Propeller Packages/Aeronaut_16x8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/VortexBlade Exc/Propeller Packages/Aeronaut_16x8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{8E92A1BF-0622-49A5-B6C3-CC8229BC9A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A65D4B8-7E94-4FDF-BFAA-B5AEDAC36491}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{8E92A1BF-0622-49A5-B6C3-CC8229BC9A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E74EFA12-2C96-458A-8EAB-7FECC19BB0DD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5615C66F-3B0A-41D0-BEB5-068B53D4D7A6}"/>
   </bookViews>
@@ -37,28 +37,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>chord(x)</t>
-  </si>
-  <si>
-    <t>span(r/R)</t>
-  </si>
-  <si>
-    <t>span(y)</t>
-  </si>
-  <si>
     <t>Span=</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Beta(deg)</t>
   </si>
   <si>
     <t>Delta r =</t>
   </si>
   <si>
     <t>Cuff radius(m)=</t>
+  </si>
+  <si>
+    <t>span(m) =</t>
+  </si>
+  <si>
+    <t>span(r/R) =</t>
+  </si>
+  <si>
+    <t>chord(m) =</t>
+  </si>
+  <si>
+    <t>Twist(deg) =</t>
+  </si>
+  <si>
+    <t>Foil Name =</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +115,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +140,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -181,27 +193,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,7 +560,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,163 +577,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="3">
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>8.0999999999999989E-2</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <v>9.1999999999999985E-2</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>0.10299999999999998</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="3">
         <v>0.11399999999999998</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="3">
         <v>0.12499999999999997</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="3">
         <v>0.13599999999999998</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="3">
         <v>0.14699999999999999</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="3">
         <v>0.158</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="3">
         <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f t="shared" ref="B2:O2" si="0">B1/$A8</f>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <f t="shared" ref="B2:N2" si="0">B1/$A8</f>
         <v>0.1465779682038561</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <f t="shared" si="0"/>
         <v>0.20859172398241063</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <f t="shared" si="0"/>
         <v>0.27060547976096516</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
         <v>0.33261923553951966</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>0.39463299131807411</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>0.45664674709662861</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <f t="shared" si="0"/>
         <v>0.51866050287518306</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <f t="shared" si="0"/>
         <v>0.58067425865373756</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <f t="shared" si="0"/>
         <v>0.64268801443229207</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>0.70470177021084657</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>0.76671552598940118</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>0.82872928176795568</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
         <v>0.8907430375465103</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="4">
         <f>O1/$A8</f>
         <v>0.9527567933250648</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
         <v>2.1799900000000001E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2.3594400000000001E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2.3594400000000001E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>2.5565000000000001E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>2.59677E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>2.5900400000000001E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>2.5416299999999999E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>2.4654300000000001E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>2.3589800000000001E-2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>2.21447E-2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>2.0245300000000001E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>1.7804199999999999E-2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>1.4819300000000001E-2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>1.1188699999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>38.46</v>
@@ -735,126 +779,126 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>6</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>7</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>8</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>9</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>10</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>11</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>12</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="6">
         <v>13</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
         <f>B1-B8</f>
         <v>1.3499999999999998E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <f>C1-B1</f>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <f t="shared" ref="D6:N6" si="1">D1-C1</f>
         <v>1.1000000000000003E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <f t="shared" si="1"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <f>O1-N1</f>
         <v>1.100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>0.17738000000000001</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
